--- a/Resultados/Determinantes/Determinantes_eficiencia_SFA_2014-2023.xlsx
+++ b/Resultados/Determinantes/Determinantes_eficiencia_SFA_2014-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johns\Desktop\memoria_2024\Tesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johns\Desktop\memoria_2024\Tesis\Resultados\Determinantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0B7E8D-059A-4EEA-9208-CA8B9A044FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EAF580-C2DA-4BE9-9987-30ED526717FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Determinantes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="238">
   <si>
     <t>Frecuencia</t>
   </si>
@@ -2128,6 +2128,9 @@
   </si>
   <si>
     <t xml:space="preserve">Media </t>
+  </si>
+  <si>
+    <t>p-value</t>
   </si>
 </sst>
 </file>
@@ -4672,7 +4675,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4845,6 +4848,24 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4854,61 +4875,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6123,10 +6129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA60"/>
+  <dimension ref="A1:AB60"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" topLeftCell="Q48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD63" sqref="AD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6141,49 +6147,49 @@
     <col min="28" max="64" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="E1" s="58">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="E1" s="64">
         <v>2014</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="58">
+      <c r="F1" s="65"/>
+      <c r="G1" s="64">
         <v>2015</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="68">
+      <c r="H1" s="66"/>
+      <c r="I1" s="67">
         <v>2016</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="58">
+      <c r="J1" s="68"/>
+      <c r="K1" s="64">
         <v>2017</v>
       </c>
-      <c r="L1" s="59"/>
-      <c r="M1" s="58">
+      <c r="L1" s="65"/>
+      <c r="M1" s="64">
         <v>2018</v>
       </c>
-      <c r="N1" s="59"/>
-      <c r="O1" s="58">
+      <c r="N1" s="65"/>
+      <c r="O1" s="64">
         <v>2019</v>
       </c>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="58">
+      <c r="P1" s="65"/>
+      <c r="Q1" s="64">
         <v>2020</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="58">
+      <c r="R1" s="65"/>
+      <c r="S1" s="64">
         <v>2021</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="58">
+      <c r="T1" s="65"/>
+      <c r="U1" s="64">
         <v>2022</v>
       </c>
-      <c r="V1" s="59"/>
-      <c r="W1" s="58">
+      <c r="V1" s="65"/>
+      <c r="W1" s="64">
         <v>2023</v>
       </c>
-      <c r="X1" s="60"/>
-    </row>
-    <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="X1" s="66"/>
+    </row>
+    <row r="2" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
@@ -6265,8 +6271,11 @@
       <c r="AA2" s="34" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB2" s="80" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6313,8 +6322,9 @@
       <c r="AA3" s="4">
         <v>8.2488855547540503</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB3" s="52"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -6361,8 +6371,9 @@
       <c r="AA4" s="4">
         <v>7.3775009550653996</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB4" s="52"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -6409,8 +6420,9 @@
       <c r="AA5" s="4">
         <v>6.0615620721388996</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB5" s="52"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -6457,8 +6469,9 @@
       <c r="AA6" s="4">
         <v>7.02061394475</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB6" s="52"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -6513,8 +6526,11 @@
       <c r="AA7" s="4">
         <v>14.794046544078499</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB7" s="5">
+        <v>0.36787940000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -6569,8 +6585,11 @@
       <c r="AA8" s="4">
         <v>15.9414437529521</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB8" s="5">
+        <v>0.36787940000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -6617,8 +6636,9 @@
       <c r="AA9" s="4">
         <v>6.5624007718582904</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB9" s="52"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -6665,8 +6685,9 @@
       <c r="AA10" s="4">
         <v>7.1557896504023697</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AB10" s="52"/>
+    </row>
+    <row r="11" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -6713,8 +6734,9 @@
       <c r="AA11" s="4">
         <v>7.5110946457143903</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB11" s="52"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -6761,8 +6783,9 @@
       <c r="AA12" s="4">
         <v>5.53630285606003</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB12" s="52"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -6809,8 +6832,9 @@
       <c r="AA13" s="4">
         <v>14.5359642152067</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB13" s="52"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -6861,8 +6885,11 @@
       <c r="AA14" s="4">
         <v>9.0551783823375604</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AB14" s="5">
+        <v>0.3173105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -6909,8 +6936,9 @@
       <c r="AA15" s="4">
         <v>9.0292501247737498</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB15" s="52"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -6957,8 +6985,9 @@
       <c r="AA16" s="4">
         <v>6.0925216968510103</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AB16" s="52"/>
+    </row>
+    <row r="17" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -7005,8 +7034,9 @@
       <c r="AA17" s="4">
         <v>7.0566370750661704</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB17" s="52"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -7053,8 +7083,9 @@
       <c r="AA18" s="4">
         <v>7.8744608201604303</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB18" s="52"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -7133,8 +7164,11 @@
       <c r="AA19" s="4">
         <v>10.449885193266701</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB19" s="5">
+        <v>0.43347010000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -7205,8 +7239,11 @@
       <c r="AA20" s="4">
         <v>13.940166641283</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB20" s="5">
+        <v>0.42319010000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -7253,8 +7290,9 @@
       <c r="AA21" s="4">
         <v>7.7296638237486999</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB21" s="52"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -7301,8 +7339,9 @@
       <c r="AA22" s="4">
         <v>8.8953954828615096</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB22" s="52"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -7353,8 +7392,11 @@
       <c r="AA23" s="4">
         <v>14.841721149098101</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB23" s="5">
+        <v>0.3173105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -7401,8 +7443,9 @@
       <c r="AA24" s="4">
         <v>8.2922325744570902</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB24" s="52"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -7453,8 +7496,11 @@
       <c r="AA25" s="4">
         <v>8.0234316125957292</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AB25" s="5">
+        <v>0.3173105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -7505,8 +7551,11 @@
       <c r="AA26" s="4">
         <v>8.0785756441664507</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AB26" s="5">
+        <v>0.3173105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -7557,8 +7606,11 @@
       <c r="AA27" s="4">
         <v>7.0417785166737001</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AB27" s="5">
+        <v>0.3173105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -7605,8 +7657,9 @@
       <c r="AA28" s="4">
         <v>8.5274005118701908</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AB28" s="52"/>
+    </row>
+    <row r="29" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -7657,8 +7710,11 @@
       <c r="AA29" s="4">
         <v>8.5707972812832498</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AB29" s="5">
+        <v>0.3173105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -7705,8 +7761,9 @@
       <c r="AA30" s="4">
         <v>6.55193209446632</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB30" s="52"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -7757,8 +7814,11 @@
       <c r="AA31" s="4">
         <v>8.2594808866139608</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AB31" s="5">
+        <v>0.3173105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
         <v>30</v>
       </c>
@@ -7805,8 +7865,9 @@
       <c r="AA32" s="4">
         <v>4.6152315637776899</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AB32" s="52"/>
+    </row>
+    <row r="33" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
         <v>31</v>
       </c>
@@ -7853,8 +7914,9 @@
       <c r="AA33" s="4">
         <v>6.1739444519572899</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AB33" s="52"/>
+    </row>
+    <row r="34" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
         <v>32</v>
       </c>
@@ -7905,8 +7967,11 @@
       <c r="AA34" s="4">
         <v>5.4952774335033903</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AB34" s="5">
+        <v>0.3173105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -7957,8 +8022,11 @@
       <c r="AA35" s="4">
         <v>7.5325949971635602</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AB35" s="5">
+        <v>0.3173105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
         <v>34</v>
       </c>
@@ -8005,8 +8073,9 @@
       <c r="AA36" s="4">
         <v>8.0139513571930507</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB36" s="52"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A37" s="9" t="s">
         <v>35</v>
       </c>
@@ -8053,8 +8122,9 @@
       <c r="AA37" s="4">
         <v>5.0887752016530001</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AB37" s="52"/>
+    </row>
+    <row r="38" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -8101,8 +8171,9 @@
       <c r="AA38" s="4">
         <v>8.1813315935445807</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AB38" s="52"/>
+    </row>
+    <row r="39" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -8149,8 +8220,9 @@
       <c r="AA39" s="4">
         <v>6.7948489260645504</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB39" s="52"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -8197,8 +8269,9 @@
       <c r="AA40" s="4">
         <v>8.0563596168488392</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB40" s="52"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -8245,8 +8318,9 @@
       <c r="AA41" s="4">
         <v>6.7511962567228903</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB41" s="52"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -8293,8 +8367,9 @@
       <c r="AA42" s="4">
         <v>7.4277349299248403</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AB42" s="52"/>
+    </row>
+    <row r="43" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -8341,8 +8416,9 @@
       <c r="AA43" s="4">
         <v>9.4627009755970306</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB43" s="52"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="s">
         <v>42</v>
       </c>
@@ -8389,8 +8465,9 @@
       <c r="AA44" s="4">
         <v>4.7432017469458501</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AB44" s="52"/>
+    </row>
+    <row r="45" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="9" t="s">
         <v>43</v>
       </c>
@@ -8441,8 +8518,11 @@
       <c r="AA45" s="4">
         <v>4.76547925670015</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB45" s="5">
+        <v>0.3173105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -8497,8 +8577,11 @@
       <c r="AA46" s="4">
         <v>7.1049950211468804</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB46" s="5">
+        <v>0.36787940000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -8545,8 +8628,9 @@
       <c r="AA47" s="4">
         <v>8.3606021275012896</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB47" s="52"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -8593,8 +8677,9 @@
       <c r="AA48" s="4">
         <v>8.0973852471970709</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AB48" s="52"/>
+    </row>
+    <row r="49" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -8641,8 +8726,9 @@
       <c r="AA49" s="4">
         <v>6.3770448281812504</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB49" s="52"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -8689,8 +8775,9 @@
       <c r="AA50" s="4">
         <v>7.2916905601386004</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB50" s="52"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -8737,8 +8824,9 @@
       <c r="AA51" s="4">
         <v>8.7477741822302608</v>
       </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB51" s="52"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -8785,8 +8873,9 @@
       <c r="AA52" s="4">
         <v>10.9399415427714</v>
       </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB52" s="52"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A53" s="9" t="s">
         <v>51</v>
       </c>
@@ -8833,8 +8922,9 @@
       <c r="AA53" s="4">
         <v>4.5325608917350397</v>
       </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB53" s="52"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -8881,8 +8971,9 @@
       <c r="AA54" s="4">
         <v>6.4110298189581698</v>
       </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB54" s="52"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -8941,8 +9032,11 @@
       <c r="AA55" s="4">
         <v>8.7091270153797993</v>
       </c>
-    </row>
-    <row r="56" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AB55" s="5">
+        <v>0.39162520000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A56" s="9" t="s">
         <v>54</v>
       </c>
@@ -8989,8 +9083,9 @@
       <c r="AA56" s="4">
         <v>7.7140936699674603</v>
       </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB56" s="52"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
@@ -9037,8 +9132,9 @@
       <c r="AA57" s="4">
         <v>7.5188922710489701</v>
       </c>
-    </row>
-    <row r="58" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AB57" s="52"/>
+    </row>
+    <row r="58" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
@@ -9085,8 +9181,9 @@
       <c r="AA58" s="4">
         <v>7.8241955188838599</v>
       </c>
-    </row>
-    <row r="59" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AB58" s="52"/>
+    </row>
+    <row r="59" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
@@ -9141,8 +9238,11 @@
       <c r="AA59" s="4">
         <v>8.6539667968451006</v>
       </c>
-    </row>
-    <row r="60" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AB59" s="5">
+        <v>0.36787940000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
@@ -9189,6 +9289,7 @@
       <c r="AA60" s="4">
         <v>6.84828515437707</v>
       </c>
+      <c r="AB60" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -9428,46 +9529,46 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" s="15"/>
-      <c r="B1" s="58">
+      <c r="B1" s="64">
         <v>2014</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="68">
+      <c r="C1" s="66"/>
+      <c r="D1" s="67">
         <v>2015</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="58">
+      <c r="E1" s="68"/>
+      <c r="F1" s="64">
         <v>2016</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="58">
+      <c r="G1" s="65"/>
+      <c r="H1" s="64">
         <v>2017</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="58">
+      <c r="I1" s="65"/>
+      <c r="J1" s="64">
         <v>2018</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="58">
+      <c r="K1" s="66"/>
+      <c r="L1" s="64">
         <v>2019</v>
       </c>
-      <c r="M1" s="59"/>
-      <c r="N1" s="58">
+      <c r="M1" s="65"/>
+      <c r="N1" s="64">
         <v>2020</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="58">
+      <c r="O1" s="65"/>
+      <c r="P1" s="64">
         <v>2021</v>
       </c>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="58">
+      <c r="Q1" s="65"/>
+      <c r="R1" s="64">
         <v>2022</v>
       </c>
-      <c r="S1" s="59"/>
-      <c r="T1" s="58">
+      <c r="S1" s="65"/>
+      <c r="T1" s="64">
         <v>2023</v>
       </c>
-      <c r="U1" s="60"/>
+      <c r="U1" s="66"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
@@ -9993,94 +10094,109 @@
       <c r="A10" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="69">
         <v>0.50419270000000005</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="70">
+      <c r="C10" s="70"/>
+      <c r="D10" s="75">
         <v>0.69247040000000004</v>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="61">
+      <c r="E10" s="76"/>
+      <c r="F10" s="69">
         <v>0.67874590000000001</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="61">
+      <c r="G10" s="79"/>
+      <c r="H10" s="69">
         <v>0.58336699999999997</v>
       </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="61">
+      <c r="I10" s="73"/>
+      <c r="J10" s="69">
         <v>0.61826159999999997</v>
       </c>
-      <c r="K10" s="65"/>
-      <c r="L10" s="61">
+      <c r="K10" s="70"/>
+      <c r="L10" s="69">
         <v>0.54710139999999996</v>
       </c>
-      <c r="M10" s="62"/>
-      <c r="N10" s="61">
+      <c r="M10" s="79"/>
+      <c r="N10" s="69">
         <v>0.43321559999999998</v>
       </c>
-      <c r="O10" s="62"/>
-      <c r="P10" s="61">
+      <c r="O10" s="79"/>
+      <c r="P10" s="69">
         <v>0.6929109</v>
       </c>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="61">
+      <c r="Q10" s="79"/>
+      <c r="R10" s="69">
         <v>0.60125010000000001</v>
       </c>
-      <c r="S10" s="62"/>
-      <c r="T10" s="61">
+      <c r="S10" s="79"/>
+      <c r="T10" s="69">
         <v>0.63336369999999997</v>
       </c>
-      <c r="U10" s="65"/>
+      <c r="U10" s="70"/>
     </row>
     <row r="11" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="63">
+      <c r="B11" s="71">
         <v>7.4139079999999996E-2</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="72">
+      <c r="C11" s="72"/>
+      <c r="D11" s="77">
         <v>6.8544190000000005E-2</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="63">
+      <c r="E11" s="78"/>
+      <c r="F11" s="71">
         <v>7.0021189999999997E-2</v>
       </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="63">
+      <c r="G11" s="74"/>
+      <c r="H11" s="71">
         <v>7.0281330000000003E-2</v>
       </c>
-      <c r="I11" s="64"/>
-      <c r="J11" s="63">
+      <c r="I11" s="74"/>
+      <c r="J11" s="71">
         <v>7.3017899999999997E-2</v>
       </c>
-      <c r="K11" s="66"/>
-      <c r="L11" s="63">
+      <c r="K11" s="72"/>
+      <c r="L11" s="71">
         <v>8.2539769999999998E-2</v>
       </c>
-      <c r="M11" s="64"/>
-      <c r="N11" s="63">
+      <c r="M11" s="74"/>
+      <c r="N11" s="71">
         <v>9.3843330000000003E-2</v>
       </c>
-      <c r="O11" s="64"/>
-      <c r="P11" s="63">
+      <c r="O11" s="74"/>
+      <c r="P11" s="71">
         <v>8.7645230000000005E-2</v>
       </c>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="63">
+      <c r="Q11" s="74"/>
+      <c r="R11" s="71">
         <v>0.10673000000000001</v>
       </c>
-      <c r="S11" s="64"/>
-      <c r="T11" s="63">
+      <c r="S11" s="74"/>
+      <c r="T11" s="71">
         <v>7.9979529999999993E-2</v>
       </c>
-      <c r="U11" s="66"/>
+      <c r="U11" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B1:C1"/>
@@ -10096,21 +10212,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10207,7 +10308,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="74">
+      <c r="N2" s="58">
         <v>1</v>
       </c>
       <c r="O2" s="5">
@@ -10240,7 +10341,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="74">
+      <c r="N3" s="58">
         <v>1</v>
       </c>
       <c r="O3" s="5">
@@ -10273,7 +10374,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="74">
+      <c r="N4" s="58">
         <v>1</v>
       </c>
       <c r="O4" s="5">
@@ -10310,7 +10411,7 @@
       <c r="M5" s="5">
         <v>16.3068047692616</v>
       </c>
-      <c r="N5" s="74">
+      <c r="N5" s="58">
         <v>3</v>
       </c>
       <c r="O5" s="5">
@@ -10347,7 +10448,7 @@
       <c r="M6" s="5">
         <v>17.507144652108099</v>
       </c>
-      <c r="N6" s="74">
+      <c r="N6" s="58">
         <v>3</v>
       </c>
       <c r="O6" s="5">
@@ -10380,7 +10481,7 @@
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="74">
+      <c r="N7" s="58">
         <v>1</v>
       </c>
       <c r="O7" s="5">
@@ -10413,7 +10514,7 @@
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="74">
+      <c r="N8" s="58">
         <v>1</v>
       </c>
       <c r="O8" s="5">
@@ -10446,7 +10547,7 @@
       <c r="M9" s="5">
         <v>6.5949429498036096</v>
       </c>
-      <c r="N9" s="74">
+      <c r="N9" s="58">
         <v>1</v>
       </c>
       <c r="O9" s="5">
@@ -10479,7 +10580,7 @@
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="74">
+      <c r="N10" s="58">
         <v>1</v>
       </c>
       <c r="O10" s="5">
@@ -10514,7 +10615,7 @@
       <c r="M11" s="5">
         <v>13.785571519258299</v>
       </c>
-      <c r="N11" s="74">
+      <c r="N11" s="58">
         <v>2</v>
       </c>
       <c r="O11" s="5">
@@ -10549,7 +10650,7 @@
       <c r="M12" s="5">
         <v>5.6356375207994001</v>
       </c>
-      <c r="N12" s="74">
+      <c r="N12" s="58">
         <v>2</v>
       </c>
       <c r="O12" s="5">
@@ -10584,7 +10685,7 @@
       <c r="M13" s="5">
         <v>9.6325958929433693</v>
       </c>
-      <c r="N13" s="74">
+      <c r="N13" s="58">
         <v>2</v>
       </c>
       <c r="O13" s="5">
@@ -10617,7 +10718,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="74">
+      <c r="N14" s="58">
         <v>1</v>
       </c>
       <c r="O14" s="5">
@@ -10650,7 +10751,7 @@
       <c r="M15" s="5">
         <v>7.5285304577040604</v>
       </c>
-      <c r="N15" s="74">
+      <c r="N15" s="58">
         <v>1</v>
       </c>
       <c r="O15" s="5">
@@ -10697,7 +10798,7 @@
         <v>8.9161211508484506</v>
       </c>
       <c r="M16" s="5"/>
-      <c r="N16" s="74">
+      <c r="N16" s="58">
         <v>8</v>
       </c>
       <c r="O16" s="5">
@@ -10740,7 +10841,7 @@
       <c r="M17" s="5">
         <v>15.6825622709457</v>
       </c>
-      <c r="N17" s="74">
+      <c r="N17" s="58">
         <v>6</v>
       </c>
       <c r="O17" s="5">
@@ -10773,7 +10874,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="74">
+      <c r="N18" s="58">
         <v>1</v>
       </c>
       <c r="O18" s="5">
@@ -10806,7 +10907,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="74">
+      <c r="N19" s="58">
         <v>1</v>
       </c>
       <c r="O19" s="5">
@@ -10843,7 +10944,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="74">
+      <c r="N20" s="58">
         <v>3</v>
       </c>
       <c r="O20" s="5">
@@ -10876,7 +10977,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="74">
+      <c r="N21" s="58">
         <v>1</v>
       </c>
       <c r="O21" s="5">
@@ -10909,7 +11010,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="74">
+      <c r="N22" s="58">
         <v>1</v>
       </c>
       <c r="O22" s="5">
@@ -10942,7 +11043,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="74">
+      <c r="N23" s="58">
         <v>1</v>
       </c>
       <c r="O23" s="5">
@@ -10975,7 +11076,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="74">
+      <c r="N24" s="58">
         <v>1</v>
       </c>
       <c r="O24" s="5">
@@ -11008,7 +11109,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="74">
+      <c r="N25" s="58">
         <v>1</v>
       </c>
       <c r="O25" s="5">
@@ -11045,7 +11146,7 @@
       <c r="M26" s="5">
         <v>9.3823423591023598</v>
       </c>
-      <c r="N26" s="74">
+      <c r="N26" s="58">
         <v>3</v>
       </c>
       <c r="O26" s="5">
@@ -11078,7 +11179,7 @@
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="74">
+      <c r="N27" s="58">
         <v>1</v>
       </c>
       <c r="O27" s="5">
@@ -11111,7 +11212,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="74">
+      <c r="N28" s="58">
         <v>1</v>
       </c>
       <c r="O28" s="5">
@@ -11146,7 +11247,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="74">
+      <c r="N29" s="58">
         <v>2</v>
       </c>
       <c r="O29" s="5">
@@ -11179,7 +11280,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="74">
+      <c r="N30" s="58">
         <v>1</v>
       </c>
       <c r="O30" s="5">
@@ -11212,7 +11313,7 @@
       <c r="M31" s="5">
         <v>6.28737807041054</v>
       </c>
-      <c r="N31" s="74">
+      <c r="N31" s="58">
         <v>1</v>
       </c>
       <c r="O31" s="5">
@@ -11245,7 +11346,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="74">
+      <c r="N32" s="58">
         <v>1</v>
       </c>
       <c r="O32" s="5">
@@ -11280,7 +11381,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="74">
+      <c r="N33" s="58">
         <v>2</v>
       </c>
       <c r="O33" s="5">
@@ -11313,7 +11414,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="74">
+      <c r="N34" s="58">
         <v>1</v>
       </c>
       <c r="O34" s="5">
@@ -11346,7 +11447,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="74">
+      <c r="N35" s="58">
         <v>1</v>
       </c>
       <c r="O35" s="5">
@@ -11381,7 +11482,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="74">
+      <c r="N36" s="58">
         <v>2</v>
       </c>
       <c r="O36" s="5">
@@ -11416,7 +11517,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="74">
+      <c r="N37" s="58">
         <v>2</v>
       </c>
       <c r="O37" s="5">
@@ -11449,7 +11550,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="74">
+      <c r="N38" s="58">
         <v>1</v>
       </c>
       <c r="O38" s="5">
@@ -11484,7 +11585,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="74">
+      <c r="N39" s="58">
         <v>2</v>
       </c>
       <c r="O39" s="5">
@@ -11519,7 +11620,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="74">
+      <c r="N40" s="58">
         <v>2</v>
       </c>
       <c r="O40" s="5">
@@ -11552,7 +11653,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="74">
+      <c r="N41" s="58">
         <v>1</v>
       </c>
       <c r="O41" s="5">
@@ -11585,7 +11686,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
-      <c r="N42" s="74">
+      <c r="N42" s="58">
         <v>1</v>
       </c>
       <c r="O42" s="5">
@@ -11618,7 +11719,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="74">
+      <c r="N43" s="58">
         <v>1</v>
       </c>
       <c r="O43" s="5">
@@ -11653,7 +11754,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
-      <c r="N44" s="74">
+      <c r="N44" s="58">
         <v>2</v>
       </c>
       <c r="O44" s="5">
@@ -11686,7 +11787,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
-      <c r="N45" s="74">
+      <c r="N45" s="58">
         <v>1</v>
       </c>
       <c r="O45" s="5">
@@ -11723,7 +11824,7 @@
         <v>6.8369171422102903</v>
       </c>
       <c r="M46" s="5"/>
-      <c r="N46" s="74">
+      <c r="N46" s="58">
         <v>3</v>
       </c>
       <c r="O46" s="5">
@@ -11756,7 +11857,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
-      <c r="N47" s="74">
+      <c r="N47" s="58">
         <v>1</v>
       </c>
       <c r="O47" s="5">
@@ -11789,7 +11890,7 @@
         <v>7.1095676590321197</v>
       </c>
       <c r="M48" s="5"/>
-      <c r="N48" s="74">
+      <c r="N48" s="58">
         <v>1</v>
       </c>
       <c r="O48" s="5">
@@ -11822,7 +11923,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
-      <c r="N49" s="74">
+      <c r="N49" s="58">
         <v>1</v>
       </c>
       <c r="O49" s="5">
@@ -11855,7 +11956,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
-      <c r="N50" s="74">
+      <c r="N50" s="58">
         <v>1</v>
       </c>
       <c r="O50" s="5">
@@ -11888,7 +11989,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-      <c r="N51" s="74">
+      <c r="N51" s="58">
         <v>1</v>
       </c>
       <c r="O51" s="5">
@@ -11921,7 +12022,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
-      <c r="N52" s="74">
+      <c r="N52" s="58">
         <v>1</v>
       </c>
       <c r="O52" s="5">
@@ -11954,7 +12055,7 @@
         <v>9.9001750339800108</v>
       </c>
       <c r="M53" s="5"/>
-      <c r="N53" s="74">
+      <c r="N53" s="58">
         <v>1</v>
       </c>
       <c r="O53" s="5">
@@ -11987,7 +12088,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
-      <c r="N54" s="74">
+      <c r="N54" s="58">
         <v>1</v>
       </c>
       <c r="O54" s="5">
@@ -12020,7 +12121,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
-      <c r="N55" s="74">
+      <c r="N55" s="58">
         <v>1</v>
       </c>
       <c r="O55" s="5">
@@ -12053,7 +12154,7 @@
       </c>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
-      <c r="N56" s="74">
+      <c r="N56" s="58">
         <v>1</v>
       </c>
       <c r="O56" s="5">
@@ -12092,7 +12193,7 @@
         <v>8.7068380060624495</v>
       </c>
       <c r="M57" s="5"/>
-      <c r="N57" s="74">
+      <c r="N57" s="58">
         <v>4</v>
       </c>
       <c r="O57" s="5">
@@ -12127,7 +12228,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="74">
+      <c r="N58" s="58">
         <v>2</v>
       </c>
       <c r="O58" s="5">
@@ -12162,7 +12263,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-      <c r="N59" s="74">
+      <c r="N59" s="58">
         <v>2</v>
       </c>
       <c r="O59" s="5">
@@ -12191,7 +12292,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
-      <c r="N60" s="74">
+      <c r="N60" s="58">
         <v>1</v>
       </c>
       <c r="O60" s="5">
@@ -12220,7 +12321,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
-      <c r="N61" s="74">
+      <c r="N61" s="58">
         <v>1</v>
       </c>
       <c r="O61" s="5">
@@ -12251,7 +12352,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
-      <c r="N62" s="74">
+      <c r="N62" s="58">
         <v>1</v>
       </c>
       <c r="O62" s="5">
@@ -12305,7 +12406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A9D570-AB35-4626-B739-42CADC87FAE7}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -12369,10 +12470,10 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="60" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="52" t="s">
@@ -12394,11 +12495,11 @@
       <c r="M2" s="5">
         <v>16.3068047692616</v>
       </c>
-      <c r="N2" s="74">
+      <c r="N2" s="58">
         <v>3</v>
       </c>
       <c r="O2" s="5">
-        <f>AVERAGE(D2:M2)</f>
+        <f t="shared" ref="O2:O33" si="0">AVERAGE(D2:M2)</f>
         <v>15.398849180218031</v>
       </c>
       <c r="P2" s="5">
@@ -12406,10 +12507,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="60" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="52" t="s">
@@ -12431,11 +12532,11 @@
       <c r="M3" s="5">
         <v>17.507144652108099</v>
       </c>
-      <c r="N3" s="74">
+      <c r="N3" s="58">
         <v>3</v>
       </c>
       <c r="O3" s="5">
-        <f>AVERAGE(D3:M3)</f>
+        <f t="shared" si="0"/>
         <v>14.929912190661733</v>
       </c>
       <c r="P3" s="5">
@@ -12443,10 +12544,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="60" t="s">
         <v>84</v>
       </c>
       <c r="C4" s="52" t="s">
@@ -12474,11 +12575,11 @@
       <c r="M4" s="5">
         <v>15.6825622709457</v>
       </c>
-      <c r="N4" s="74">
+      <c r="N4" s="58">
         <v>6</v>
       </c>
       <c r="O4" s="5">
-        <f>AVERAGE(D4:M4)</f>
+        <f t="shared" si="0"/>
         <v>14.444663895591072</v>
       </c>
       <c r="P4" s="5">
@@ -12486,10 +12587,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="60" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="52" t="s">
@@ -12511,11 +12612,11 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="74">
+      <c r="N5" s="58">
         <v>3</v>
       </c>
       <c r="O5" s="5">
-        <f>AVERAGE(D5:M5)</f>
+        <f t="shared" si="0"/>
         <v>11.359259408022469</v>
       </c>
       <c r="P5" s="5">
@@ -12523,10 +12624,10 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="60" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="52" t="s">
@@ -12558,11 +12659,11 @@
         <v>8.9161211508484506</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="N6" s="74">
+      <c r="N6" s="58">
         <v>8</v>
       </c>
       <c r="O6" s="5">
-        <f>AVERAGE(D6:M6)</f>
+        <f t="shared" si="0"/>
         <v>10.787877970346013</v>
       </c>
       <c r="P6" s="5">
@@ -12570,10 +12671,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="60" t="s">
         <v>118</v>
       </c>
       <c r="C7" s="52" t="s">
@@ -12597,11 +12698,11 @@
         <v>8.7068380060624495</v>
       </c>
       <c r="M7" s="5"/>
-      <c r="N7" s="74">
+      <c r="N7" s="58">
         <v>4</v>
       </c>
       <c r="O7" s="5">
-        <f>AVERAGE(D7:M7)</f>
+        <f t="shared" si="0"/>
         <v>10.379923027002409</v>
       </c>
       <c r="P7" s="5">
@@ -12609,10 +12710,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="60" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="52" t="s">
@@ -12632,11 +12733,11 @@
       <c r="M8" s="5">
         <v>13.785571519258299</v>
       </c>
-      <c r="N8" s="74">
+      <c r="N8" s="58">
         <v>2</v>
       </c>
       <c r="O8" s="5">
-        <f>AVERAGE(D8:M8)</f>
+        <f t="shared" si="0"/>
         <v>10.126283881343175</v>
       </c>
       <c r="P8" s="5">
@@ -12644,10 +12745,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="62" t="s">
         <v>226</v>
       </c>
       <c r="C9" s="52" t="s">
@@ -12665,11 +12766,11 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="74">
+      <c r="N9" s="58">
         <v>1</v>
       </c>
       <c r="O9" s="5">
-        <f>AVERAGE(D9:M9)</f>
+        <f t="shared" si="0"/>
         <v>10.0006228014458</v>
       </c>
       <c r="P9" s="5">
@@ -12677,10 +12778,10 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="62" t="s">
         <v>212</v>
       </c>
       <c r="C10" s="52" t="s">
@@ -12700,11 +12801,11 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="74">
+      <c r="N10" s="58">
         <v>2</v>
       </c>
       <c r="O10" s="5">
-        <f>AVERAGE(D10:M10)</f>
+        <f t="shared" si="0"/>
         <v>9.9910409242121005</v>
       </c>
       <c r="P10" s="5">
@@ -12712,10 +12813,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="63" t="s">
         <v>113</v>
       </c>
       <c r="C11" s="52" t="s">
@@ -12733,11 +12834,11 @@
         <v>9.9001750339800108</v>
       </c>
       <c r="M11" s="5"/>
-      <c r="N11" s="74">
+      <c r="N11" s="58">
         <v>1</v>
       </c>
       <c r="O11" s="5">
-        <f>AVERAGE(D11:M11)</f>
+        <f t="shared" si="0"/>
         <v>9.9001750339800108</v>
       </c>
       <c r="P11" s="5">
@@ -12766,11 +12867,11 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="74">
+      <c r="N12" s="58">
         <v>1</v>
       </c>
       <c r="O12" s="5">
-        <f>AVERAGE(D12:M12)</f>
+        <f t="shared" si="0"/>
         <v>9.8204323751021096</v>
       </c>
       <c r="P12" s="5">
@@ -12801,11 +12902,11 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="74">
+      <c r="N13" s="58">
         <v>2</v>
       </c>
       <c r="O13" s="5">
-        <f>AVERAGE(D13:M13)</f>
+        <f t="shared" si="0"/>
         <v>9.4803823291567149</v>
       </c>
       <c r="P13" s="5">
@@ -12834,11 +12935,11 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="74">
+      <c r="N14" s="58">
         <v>1</v>
       </c>
       <c r="O14" s="5">
-        <f>AVERAGE(D14:M14)</f>
+        <f t="shared" si="0"/>
         <v>8.8145275645095005</v>
       </c>
       <c r="P14" s="5">
@@ -12867,11 +12968,11 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="74">
+      <c r="N15" s="58">
         <v>1</v>
       </c>
       <c r="O15" s="5">
-        <f>AVERAGE(D15:M15)</f>
+        <f t="shared" si="0"/>
         <v>8.5888012417015709</v>
       </c>
       <c r="P15" s="5">
@@ -12900,11 +13001,11 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="74">
+      <c r="N16" s="58">
         <v>1</v>
       </c>
       <c r="O16" s="5">
-        <f>AVERAGE(D16:M16)</f>
+        <f t="shared" si="0"/>
         <v>8.5644071413341791</v>
       </c>
       <c r="P16" s="5">
@@ -12933,11 +13034,11 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="74">
+      <c r="N17" s="58">
         <v>1</v>
       </c>
       <c r="O17" s="5">
-        <f>AVERAGE(D17:M17)</f>
+        <f t="shared" si="0"/>
         <v>8.5426173197985005</v>
       </c>
       <c r="P17" s="5">
@@ -12966,11 +13067,11 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="74">
+      <c r="N18" s="58">
         <v>1</v>
       </c>
       <c r="O18" s="5">
-        <f>AVERAGE(D18:M18)</f>
+        <f t="shared" si="0"/>
         <v>8.4733818811769801</v>
       </c>
       <c r="P18" s="5">
@@ -13001,11 +13102,11 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="74">
+      <c r="N19" s="58">
         <v>2</v>
       </c>
       <c r="O19" s="5">
-        <f>AVERAGE(D19:M19)</f>
+        <f t="shared" si="0"/>
         <v>8.4253790487903704</v>
       </c>
       <c r="P19" s="5">
@@ -13036,11 +13137,11 @@
       <c r="M20" s="5">
         <v>5.6356375207994001</v>
       </c>
-      <c r="N20" s="74">
+      <c r="N20" s="58">
         <v>2</v>
       </c>
       <c r="O20" s="5">
-        <f>AVERAGE(D20:M20)</f>
+        <f t="shared" si="0"/>
         <v>8.2924211190032509</v>
       </c>
       <c r="P20" s="5">
@@ -13071,11 +13172,11 @@
       <c r="M21" s="5">
         <v>9.6325958929433693</v>
       </c>
-      <c r="N21" s="74">
+      <c r="N21" s="58">
         <v>2</v>
       </c>
       <c r="O21" s="5">
-        <f>AVERAGE(D21:M21)</f>
+        <f t="shared" si="0"/>
         <v>8.2761133037971391</v>
       </c>
       <c r="P21" s="5">
@@ -13104,11 +13205,11 @@
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="74">
+      <c r="N22" s="58">
         <v>1</v>
       </c>
       <c r="O22" s="5">
-        <f>AVERAGE(D22:M22)</f>
+        <f t="shared" si="0"/>
         <v>8.2623857394513198</v>
       </c>
       <c r="P22" s="5">
@@ -13137,11 +13238,11 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="74">
+      <c r="N23" s="58">
         <v>1</v>
       </c>
       <c r="O23" s="5">
-        <f>AVERAGE(D23:M23)</f>
+        <f t="shared" si="0"/>
         <v>8.0605444417633496</v>
       </c>
       <c r="P23" s="5">
@@ -13170,11 +13271,11 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="74">
+      <c r="N24" s="58">
         <v>1</v>
       </c>
       <c r="O24" s="5">
-        <f>AVERAGE(D24:M24)</f>
+        <f t="shared" si="0"/>
         <v>8.02726371169571</v>
       </c>
       <c r="P24" s="5">
@@ -13185,7 +13286,7 @@
       <c r="A25" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="59" t="s">
         <v>218</v>
       </c>
       <c r="C25" s="52" t="s">
@@ -13203,11 +13304,11 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="74">
+      <c r="N25" s="58">
         <v>1</v>
       </c>
       <c r="O25" s="5">
-        <f>AVERAGE(D25:M25)</f>
+        <f t="shared" si="0"/>
         <v>7.9930922781118099</v>
       </c>
       <c r="P25" s="5">
@@ -13240,11 +13341,11 @@
         <v>6.8369171422102903</v>
       </c>
       <c r="M26" s="5"/>
-      <c r="N26" s="74">
+      <c r="N26" s="58">
         <v>3</v>
       </c>
       <c r="O26" s="5">
-        <f>AVERAGE(D26:M26)</f>
+        <f t="shared" si="0"/>
         <v>7.9293669697060372</v>
       </c>
       <c r="P26" s="5">
@@ -13277,11 +13378,11 @@
       <c r="M27" s="5">
         <v>9.3823423591023598</v>
       </c>
-      <c r="N27" s="74">
+      <c r="N27" s="58">
         <v>3</v>
       </c>
       <c r="O27" s="5">
-        <f>AVERAGE(D27:M27)</f>
+        <f t="shared" si="0"/>
         <v>7.8004417597297468</v>
       </c>
       <c r="P27" s="5">
@@ -13310,11 +13411,11 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="74">
+      <c r="N28" s="58">
         <v>1</v>
       </c>
       <c r="O28" s="5">
-        <f>AVERAGE(D28:M28)</f>
+        <f t="shared" si="0"/>
         <v>7.7682388250237002</v>
       </c>
       <c r="P28" s="5">
@@ -13343,11 +13444,11 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="74">
+      <c r="N29" s="58">
         <v>1</v>
       </c>
       <c r="O29" s="5">
-        <f>AVERAGE(D29:M29)</f>
+        <f t="shared" si="0"/>
         <v>7.6106755570459503</v>
       </c>
       <c r="P29" s="5">
@@ -13376,11 +13477,11 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="74">
+      <c r="N30" s="58">
         <v>1</v>
       </c>
       <c r="O30" s="5">
-        <f>AVERAGE(D30:M30)</f>
+        <f t="shared" si="0"/>
         <v>7.54146577349215</v>
       </c>
       <c r="P30" s="5">
@@ -13409,11 +13510,11 @@
       <c r="M31" s="5">
         <v>7.5285304577040604</v>
       </c>
-      <c r="N31" s="74">
+      <c r="N31" s="58">
         <v>1</v>
       </c>
       <c r="O31" s="5">
-        <f>AVERAGE(D31:M31)</f>
+        <f t="shared" si="0"/>
         <v>7.5285304577040604</v>
       </c>
       <c r="P31" s="5">
@@ -13444,11 +13545,11 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="74">
+      <c r="N32" s="58">
         <v>2</v>
       </c>
       <c r="O32" s="5">
-        <f>AVERAGE(D32:M32)</f>
+        <f t="shared" si="0"/>
         <v>7.5175229290091004</v>
       </c>
       <c r="P32" s="5">
@@ -13477,11 +13578,11 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="74">
+      <c r="N33" s="58">
         <v>1</v>
       </c>
       <c r="O33" s="5">
-        <f>AVERAGE(D33:M33)</f>
+        <f t="shared" si="0"/>
         <v>7.3346252907616698</v>
       </c>
       <c r="P33" s="5">
@@ -13510,11 +13611,11 @@
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="74">
+      <c r="N34" s="58">
         <v>1</v>
       </c>
       <c r="O34" s="5">
-        <f>AVERAGE(D34:M34)</f>
+        <f t="shared" ref="O34:O62" si="1">AVERAGE(D34:M34)</f>
         <v>7.2682583239945497</v>
       </c>
       <c r="P34" s="5">
@@ -13541,11 +13642,11 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="74">
+      <c r="N35" s="58">
         <v>1</v>
       </c>
       <c r="O35" s="5">
-        <f>AVERAGE(D35:M35)</f>
+        <f t="shared" si="1"/>
         <v>7.1442928457615302</v>
       </c>
       <c r="P35" s="5">
@@ -13574,11 +13675,11 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="74">
+      <c r="N36" s="58">
         <v>1</v>
       </c>
       <c r="O36" s="5">
-        <f>AVERAGE(D36:M36)</f>
+        <f t="shared" si="1"/>
         <v>7.1323330369040496</v>
       </c>
       <c r="P36" s="5">
@@ -13609,11 +13710,11 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="74">
+      <c r="N37" s="58">
         <v>2</v>
       </c>
       <c r="O37" s="5">
-        <f>AVERAGE(D37:M37)</f>
+        <f t="shared" si="1"/>
         <v>7.1206243256404251</v>
       </c>
       <c r="P37" s="5">
@@ -13644,11 +13745,11 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="74">
+      <c r="N38" s="58">
         <v>2</v>
       </c>
       <c r="O38" s="5">
-        <f>AVERAGE(D38:M38)</f>
+        <f t="shared" si="1"/>
         <v>7.110403968116195</v>
       </c>
       <c r="P38" s="5">
@@ -13677,11 +13778,11 @@
         <v>7.1095676590321197</v>
       </c>
       <c r="M39" s="5"/>
-      <c r="N39" s="74">
+      <c r="N39" s="58">
         <v>1</v>
       </c>
       <c r="O39" s="5">
-        <f>AVERAGE(D39:M39)</f>
+        <f t="shared" si="1"/>
         <v>7.1095676590321197</v>
       </c>
       <c r="P39" s="5">
@@ -13710,11 +13811,11 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="74">
+      <c r="N40" s="58">
         <v>1</v>
       </c>
       <c r="O40" s="5">
-        <f>AVERAGE(D40:M40)</f>
+        <f t="shared" si="1"/>
         <v>7.0214074850388402</v>
       </c>
       <c r="P40" s="5">
@@ -13743,11 +13844,11 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="74">
+      <c r="N41" s="58">
         <v>1</v>
       </c>
       <c r="O41" s="5">
-        <f>AVERAGE(D41:M41)</f>
+        <f t="shared" si="1"/>
         <v>7.0167388887079101</v>
       </c>
       <c r="P41" s="5">
@@ -13776,11 +13877,11 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
-      <c r="N42" s="74">
+      <c r="N42" s="58">
         <v>1</v>
       </c>
       <c r="O42" s="5">
-        <f>AVERAGE(D42:M42)</f>
+        <f t="shared" si="1"/>
         <v>6.9450309828199499</v>
       </c>
       <c r="P42" s="5">
@@ -13809,11 +13910,11 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="74">
+      <c r="N43" s="58">
         <v>1</v>
       </c>
       <c r="O43" s="5">
-        <f>AVERAGE(D43:M43)</f>
+        <f t="shared" si="1"/>
         <v>6.8744507927071101</v>
       </c>
       <c r="P43" s="5">
@@ -13842,11 +13943,11 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
-      <c r="N44" s="74">
+      <c r="N44" s="58">
         <v>1</v>
       </c>
       <c r="O44" s="5">
-        <f>AVERAGE(D44:M44)</f>
+        <f t="shared" si="1"/>
         <v>6.74244070068751</v>
       </c>
       <c r="P44" s="5">
@@ -13877,11 +13978,11 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
-      <c r="N45" s="74">
+      <c r="N45" s="58">
         <v>2</v>
       </c>
       <c r="O45" s="5">
-        <f>AVERAGE(D45:M45)</f>
+        <f t="shared" si="1"/>
         <v>6.7394047899329301</v>
       </c>
       <c r="P45" s="5">
@@ -13910,11 +14011,11 @@
       <c r="M46" s="5">
         <v>6.5949429498036096</v>
       </c>
-      <c r="N46" s="74">
+      <c r="N46" s="58">
         <v>1</v>
       </c>
       <c r="O46" s="5">
-        <f>AVERAGE(D46:M46)</f>
+        <f t="shared" si="1"/>
         <v>6.5949429498036096</v>
       </c>
       <c r="P46" s="5">
@@ -13943,11 +14044,11 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
-      <c r="N47" s="74">
+      <c r="N47" s="58">
         <v>1</v>
       </c>
       <c r="O47" s="5">
-        <f>AVERAGE(D47:M47)</f>
+        <f t="shared" si="1"/>
         <v>6.5932266527266199</v>
       </c>
       <c r="P47" s="5">
@@ -13976,11 +14077,11 @@
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
-      <c r="N48" s="74">
+      <c r="N48" s="58">
         <v>1</v>
       </c>
       <c r="O48" s="5">
-        <f>AVERAGE(D48:M48)</f>
+        <f t="shared" si="1"/>
         <v>6.5173504973558298</v>
       </c>
       <c r="P48" s="5">
@@ -14009,11 +14110,11 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
-      <c r="N49" s="74">
+      <c r="N49" s="58">
         <v>1</v>
       </c>
       <c r="O49" s="5">
-        <f>AVERAGE(D49:M49)</f>
+        <f t="shared" si="1"/>
         <v>6.37944793227605</v>
       </c>
       <c r="P49" s="5">
@@ -14042,11 +14143,11 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
-      <c r="N50" s="74">
+      <c r="N50" s="58">
         <v>1</v>
       </c>
       <c r="O50" s="5">
-        <f>AVERAGE(D50:M50)</f>
+        <f t="shared" si="1"/>
         <v>6.3224652571773703</v>
       </c>
       <c r="P50" s="5">
@@ -14057,7 +14158,7 @@
       <c r="A51" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="B51" s="75" t="s">
+      <c r="B51" s="59" t="s">
         <v>217</v>
       </c>
       <c r="C51" s="54" t="s">
@@ -14075,11 +14176,11 @@
       <c r="M51" s="5">
         <v>6.28737807041054</v>
       </c>
-      <c r="N51" s="74">
+      <c r="N51" s="58">
         <v>1</v>
       </c>
       <c r="O51" s="5">
-        <f>AVERAGE(D51:M51)</f>
+        <f t="shared" si="1"/>
         <v>6.28737807041054</v>
       </c>
       <c r="P51" s="5">
@@ -14108,11 +14209,11 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
-      <c r="N52" s="74">
+      <c r="N52" s="58">
         <v>1</v>
       </c>
       <c r="O52" s="5">
-        <f>AVERAGE(D52:M52)</f>
+        <f t="shared" si="1"/>
         <v>6.2699055839293703</v>
       </c>
       <c r="P52" s="5">
@@ -14141,11 +14242,11 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
-      <c r="N53" s="74">
+      <c r="N53" s="58">
         <v>1</v>
       </c>
       <c r="O53" s="5">
-        <f>AVERAGE(D53:M53)</f>
+        <f t="shared" si="1"/>
         <v>6.2322542076764602</v>
       </c>
       <c r="P53" s="5">
@@ -14174,11 +14275,11 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
-      <c r="N54" s="74">
+      <c r="N54" s="58">
         <v>1</v>
       </c>
       <c r="O54" s="5">
-        <f>AVERAGE(D54:M54)</f>
+        <f t="shared" si="1"/>
         <v>6.1871588715894399</v>
       </c>
       <c r="P54" s="5">
@@ -14207,11 +14308,11 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
-      <c r="N55" s="74">
+      <c r="N55" s="58">
         <v>1</v>
       </c>
       <c r="O55" s="5">
-        <f>AVERAGE(D55:M55)</f>
+        <f t="shared" si="1"/>
         <v>6.08261189284545</v>
       </c>
       <c r="P55" s="5">
@@ -14240,11 +14341,11 @@
       </c>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
-      <c r="N56" s="74">
+      <c r="N56" s="58">
         <v>1</v>
       </c>
       <c r="O56" s="5">
-        <f>AVERAGE(D56:M56)</f>
+        <f t="shared" si="1"/>
         <v>5.9396513616823698</v>
       </c>
       <c r="P56" s="5">
@@ -14255,7 +14356,7 @@
       <c r="A57" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="B57" s="75" t="s">
+      <c r="B57" s="59" t="s">
         <v>225</v>
       </c>
       <c r="C57" s="54" t="s">
@@ -14275,11 +14376,11 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
-      <c r="N57" s="74">
+      <c r="N57" s="58">
         <v>2</v>
       </c>
       <c r="O57" s="5">
-        <f>AVERAGE(D57:M57)</f>
+        <f t="shared" si="1"/>
         <v>5.8237534237090198</v>
       </c>
       <c r="P57" s="5">
@@ -14308,11 +14409,11 @@
       </c>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="74">
+      <c r="N58" s="58">
         <v>1</v>
       </c>
       <c r="O58" s="5">
-        <f>AVERAGE(D58:M58)</f>
+        <f t="shared" si="1"/>
         <v>5.5161838643278198</v>
       </c>
       <c r="P58" s="5">
@@ -14343,11 +14444,11 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-      <c r="N59" s="74">
+      <c r="N59" s="58">
         <v>2</v>
       </c>
       <c r="O59" s="5">
-        <f>AVERAGE(D59:M59)</f>
+        <f t="shared" si="1"/>
         <v>7.5923990586095407</v>
       </c>
       <c r="P59" s="5">
@@ -14372,11 +14473,11 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
-      <c r="N60" s="74">
+      <c r="N60" s="58">
         <v>1</v>
       </c>
       <c r="O60" s="5">
-        <f>AVERAGE(D60:M60)</f>
+        <f t="shared" si="1"/>
         <v>10.5773457312471</v>
       </c>
       <c r="P60" s="5">
@@ -14401,11 +14502,11 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
-      <c r="N61" s="74">
+      <c r="N61" s="58">
         <v>1</v>
       </c>
       <c r="O61" s="5">
-        <f>AVERAGE(D61:M61)</f>
+        <f t="shared" si="1"/>
         <v>7.4152363809225896</v>
       </c>
       <c r="P61" s="5">
@@ -14434,11 +14535,11 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
-      <c r="N62" s="74">
+      <c r="N62" s="58">
         <v>1</v>
       </c>
       <c r="O62" s="5">
-        <f>AVERAGE(D62:M62)</f>
+        <f t="shared" si="1"/>
         <v>5.1419104335276797</v>
       </c>
       <c r="P62" s="5">
@@ -14471,7 +14572,7 @@
         <v>2</v>
       </c>
       <c r="O63" s="52">
-        <f t="shared" ref="O3:O63" si="0">AVERAGE(D63:M63)</f>
+        <f t="shared" ref="O63" si="2">AVERAGE(D63:M63)</f>
         <v>6.4881375330436644</v>
       </c>
       <c r="P63" s="52">
